--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olek-Pobrane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadek\Desktop\Studimet\Shkenca AEEiTK\2025\Nietypowy przekształtnik\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A483610-2689-4F4A-B94A-56461FE2B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="14190" windowHeight="8770" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Component List'!$B$2:$F$67</definedName>
     <definedName name="Priority">'[1]Business Process Flowchart'!#REF!</definedName>
     <definedName name="Status">'[1]Business Process Flowchart'!#REF!</definedName>
     <definedName name="Type">'[2]Towing Invoice'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Component List'!$B$2:$F$67</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>COMPONENT LIST TEMPLATE</t>
   </si>
@@ -138,9 +139,6 @@
   </si>
   <si>
     <t>D1, D2 (650 V, 484 W)</t>
-  </si>
-  <si>
-    <t>THT; być może jest konieczne inne złącze - na razie ARK</t>
   </si>
   <si>
     <t>DE1207-12</t>
@@ -238,11 +236,20 @@
   <si>
     <t>C9, C10 (47u/250V)</t>
   </si>
+  <si>
+    <t>D3, D4 (100 V, 10 A)</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/v10p10-m3_86a/diody-schottky-smd/vishay/</t>
+  </si>
+  <si>
+    <t>V10P10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -427,7 +434,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,30 +475,27 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="18" builtinId="8"/>
-    <cellStyle name="Normal 2" xfId="17"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlidhje" xfId="18" builtinId="8"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlidhje e përcjellë" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9605,7 +9609,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Business Process Flowchart"/>
@@ -9618,7 +9622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Towing Invoice"/>
@@ -9953,16 +9957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -9970,7 +9974,7 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.9140625" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="98.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="87.83203125" customWidth="1"/>
   </cols>
@@ -10009,7 +10013,7 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7">
@@ -10024,7 +10028,7 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7">
@@ -10037,10 +10041,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -10052,10 +10056,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -10064,13 +10068,13 @@
     </row>
     <row r="8" spans="2:6" ht="22" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -10082,10 +10086,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7">
         <v>3</v>
@@ -10097,10 +10101,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -10112,10 +10116,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -10124,19 +10128,19 @@
     </row>
     <row r="12" spans="2:6" ht="22" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="22" customHeight="1">
@@ -10144,10 +10148,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -10159,10 +10163,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -10174,10 +10178,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -10186,13 +10190,13 @@
     </row>
     <row r="16" spans="2:6" ht="22" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
@@ -10201,13 +10205,13 @@
     </row>
     <row r="17" spans="2:6" ht="22" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7">
         <v>2</v>
@@ -10245,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="22" customHeight="1">
@@ -10265,13 +10269,13 @@
     </row>
     <row r="21" spans="2:6" ht="22" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>56</v>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E21" s="7">
         <v>4</v>
@@ -10279,10 +10283,18 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" ht="22" customHeight="1">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" ht="22" customHeight="1">
@@ -10614,23 +10626,18 @@
     <mergeCell ref="B69:F69"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B69:F69" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D21" r:id="rId6"/>
+    <hyperlink ref="B69:F69" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId10" name="Check Box 1">
+            <control shapeId="1025" r:id="rId5" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10652,7 +10659,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId11" name="Check Box 2">
+            <control shapeId="1026" r:id="rId6" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10674,7 +10681,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId12" name="Check Box 3">
+            <control shapeId="1027" r:id="rId7" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10696,7 +10703,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId13" name="Check Box 4">
+            <control shapeId="1028" r:id="rId8" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10718,7 +10725,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId14" name="Check Box 5">
+            <control shapeId="1029" r:id="rId9" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10740,7 +10747,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId15" name="Check Box 6">
+            <control shapeId="1030" r:id="rId10" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10762,7 +10769,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId16" name="Check Box 7">
+            <control shapeId="1031" r:id="rId11" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10784,7 +10791,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId17" name="Check Box 8">
+            <control shapeId="1032" r:id="rId12" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10806,7 +10813,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId18" name="Check Box 9">
+            <control shapeId="1033" r:id="rId13" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10828,7 +10835,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId19" name="Check Box 10">
+            <control shapeId="1034" r:id="rId14" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10850,7 +10857,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId20" name="Check Box 11">
+            <control shapeId="1035" r:id="rId15" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10872,7 +10879,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId21" name="Check Box 12">
+            <control shapeId="1036" r:id="rId16" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10894,7 +10901,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId22" name="Check Box 13">
+            <control shapeId="1037" r:id="rId17" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10916,7 +10923,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId23" name="Check Box 14">
+            <control shapeId="1038" r:id="rId18" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10938,7 +10945,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId24" name="Check Box 15">
+            <control shapeId="1039" r:id="rId19" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10960,7 +10967,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId25" name="Check Box 16">
+            <control shapeId="1040" r:id="rId20" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -10982,7 +10989,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId26" name="Check Box 18">
+            <control shapeId="1042" r:id="rId21" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11004,7 +11011,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId27" name="Check Box 19">
+            <control shapeId="1043" r:id="rId22" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11026,7 +11033,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId28" name="Check Box 20">
+            <control shapeId="1044" r:id="rId23" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11048,7 +11055,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId29" name="Check Box 21">
+            <control shapeId="1045" r:id="rId24" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11070,7 +11077,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId30" name="Check Box 22">
+            <control shapeId="1046" r:id="rId25" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11092,7 +11099,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId31" name="Check Box 23">
+            <control shapeId="1047" r:id="rId26" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11114,7 +11121,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId32" name="Check Box 24">
+            <control shapeId="1048" r:id="rId27" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11136,7 +11143,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId33" name="Check Box 25">
+            <control shapeId="1049" r:id="rId28" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11158,7 +11165,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId34" name="Check Box 26">
+            <control shapeId="1050" r:id="rId29" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11180,7 +11187,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId35" name="Check Box 27">
+            <control shapeId="1051" r:id="rId30" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11202,7 +11209,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId36" name="Check Box 28">
+            <control shapeId="1052" r:id="rId31" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11224,7 +11231,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId37" name="Check Box 29">
+            <control shapeId="1053" r:id="rId32" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11246,7 +11253,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId38" name="Check Box 30">
+            <control shapeId="1054" r:id="rId33" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11268,7 +11275,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId39" name="Check Box 31">
+            <control shapeId="1055" r:id="rId34" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11290,7 +11297,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId40" name="Check Box 32">
+            <control shapeId="1056" r:id="rId35" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11312,7 +11319,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId41" name="Check Box 34">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11334,7 +11341,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId42" name="Check Box 37">
+            <control shapeId="1061" r:id="rId37" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11356,7 +11363,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId43" name="Check Box 38">
+            <control shapeId="1062" r:id="rId38" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11378,7 +11385,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId44" name="Check Box 39">
+            <control shapeId="1063" r:id="rId39" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11400,7 +11407,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId45" name="Check Box 40">
+            <control shapeId="1064" r:id="rId40" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11422,7 +11429,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId46" name="Check Box 41">
+            <control shapeId="1065" r:id="rId41" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11444,7 +11451,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId47" name="Check Box 42">
+            <control shapeId="1066" r:id="rId42" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11466,7 +11473,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId48" name="Check Box 43">
+            <control shapeId="1067" r:id="rId43" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11488,7 +11495,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId49" name="Check Box 44">
+            <control shapeId="1068" r:id="rId44" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11510,7 +11517,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId50" name="Check Box 45">
+            <control shapeId="1069" r:id="rId45" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11532,7 +11539,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId51" name="Check Box 46">
+            <control shapeId="1070" r:id="rId46" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11554,7 +11561,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId52" name="Check Box 47">
+            <control shapeId="1071" r:id="rId47" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11576,7 +11583,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId53" name="Check Box 48">
+            <control shapeId="1072" r:id="rId48" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11598,7 +11605,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId54" name="Check Box 49">
+            <control shapeId="1073" r:id="rId49" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11620,7 +11627,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId55" name="Check Box 50">
+            <control shapeId="1074" r:id="rId50" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11642,7 +11649,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId56" name="Check Box 51">
+            <control shapeId="1075" r:id="rId51" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11664,7 +11671,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId57" name="Check Box 52">
+            <control shapeId="1076" r:id="rId52" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11686,7 +11693,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId58" name="Check Box 53">
+            <control shapeId="1077" r:id="rId53" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11708,7 +11715,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId59" name="Check Box 54">
+            <control shapeId="1078" r:id="rId54" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11730,7 +11737,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId60" name="Check Box 55">
+            <control shapeId="1079" r:id="rId55" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11752,7 +11759,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId61" name="Check Box 56">
+            <control shapeId="1080" r:id="rId56" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11774,7 +11781,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId62" name="Check Box 57">
+            <control shapeId="1081" r:id="rId57" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11796,7 +11803,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId63" name="Check Box 58">
+            <control shapeId="1082" r:id="rId58" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11818,7 +11825,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId64" name="Check Box 59">
+            <control shapeId="1083" r:id="rId59" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11840,7 +11847,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId65" name="Check Box 60">
+            <control shapeId="1084" r:id="rId60" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11862,7 +11869,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId66" name="Check Box 61">
+            <control shapeId="1085" r:id="rId61" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11884,7 +11891,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId67" name="Check Box 62">
+            <control shapeId="1086" r:id="rId62" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11906,7 +11913,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId68" name="Check Box 63">
+            <control shapeId="1087" r:id="rId63" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11928,7 +11935,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId69" name="Check Box 64">
+            <control shapeId="1088" r:id="rId64" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11950,7 +11957,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1089" r:id="rId70" name="Check Box 65">
+            <control shapeId="1089" r:id="rId65" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11972,7 +11979,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId71" name="Check Box 66">
+            <control shapeId="1090" r:id="rId66" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11994,7 +12001,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId72" name="Check Box 67">
+            <control shapeId="1091" r:id="rId67" name="Check Box 67">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12016,7 +12023,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId73" name="Check Box 68">
+            <control shapeId="1092" r:id="rId68" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12038,7 +12045,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId74" name="Check Box 70">
+            <control shapeId="1094" r:id="rId69" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12060,7 +12067,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId75" name="Check Box 71">
+            <control shapeId="1095" r:id="rId70" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12082,7 +12089,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1096" r:id="rId76" name="Check Box 72">
+            <control shapeId="1096" r:id="rId71" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12104,7 +12111,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId77" name="Check Box 73">
+            <control shapeId="1097" r:id="rId72" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12126,7 +12133,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1098" r:id="rId78" name="Check Box 74">
+            <control shapeId="1098" r:id="rId73" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12148,7 +12155,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1099" r:id="rId79" name="Check Box 75">
+            <control shapeId="1099" r:id="rId74" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12170,7 +12177,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1100" r:id="rId80" name="Check Box 76">
+            <control shapeId="1100" r:id="rId75" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12192,7 +12199,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1101" r:id="rId81" name="Check Box 77">
+            <control shapeId="1101" r:id="rId76" name="Check Box 77">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12214,7 +12221,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1102" r:id="rId82" name="Check Box 78">
+            <control shapeId="1102" r:id="rId77" name="Check Box 78">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12236,7 +12243,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1103" r:id="rId83" name="Check Box 79">
+            <control shapeId="1103" r:id="rId78" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12258,7 +12265,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1104" r:id="rId84" name="Check Box 80">
+            <control shapeId="1104" r:id="rId79" name="Check Box 80">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12280,7 +12287,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1105" r:id="rId85" name="Check Box 81">
+            <control shapeId="1105" r:id="rId80" name="Check Box 81">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12302,7 +12309,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1106" r:id="rId86" name="Check Box 82">
+            <control shapeId="1106" r:id="rId81" name="Check Box 82">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12324,7 +12331,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1107" r:id="rId87" name="Check Box 83">
+            <control shapeId="1107" r:id="rId82" name="Check Box 83">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12346,7 +12353,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1108" r:id="rId88" name="Check Box 84">
+            <control shapeId="1108" r:id="rId83" name="Check Box 84">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12368,7 +12375,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1109" r:id="rId89" name="Check Box 85">
+            <control shapeId="1109" r:id="rId84" name="Check Box 85">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12390,7 +12397,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1110" r:id="rId90" name="Check Box 86">
+            <control shapeId="1110" r:id="rId85" name="Check Box 86">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12412,7 +12419,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1111" r:id="rId91" name="Check Box 87">
+            <control shapeId="1111" r:id="rId86" name="Check Box 87">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12434,7 +12441,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1112" r:id="rId92" name="Check Box 88">
+            <control shapeId="1112" r:id="rId87" name="Check Box 88">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12456,7 +12463,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1113" r:id="rId93" name="Check Box 89">
+            <control shapeId="1113" r:id="rId88" name="Check Box 89">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12478,7 +12485,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1114" r:id="rId94" name="Check Box 90">
+            <control shapeId="1114" r:id="rId89" name="Check Box 90">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12500,7 +12507,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1115" r:id="rId95" name="Check Box 91">
+            <control shapeId="1115" r:id="rId90" name="Check Box 91">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12522,7 +12529,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1116" r:id="rId96" name="Check Box 92">
+            <control shapeId="1116" r:id="rId91" name="Check Box 92">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12544,7 +12551,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1117" r:id="rId97" name="Check Box 93">
+            <control shapeId="1117" r:id="rId92" name="Check Box 93">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12566,7 +12573,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1118" r:id="rId98" name="Check Box 94">
+            <control shapeId="1118" r:id="rId93" name="Check Box 94">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12588,7 +12595,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1119" r:id="rId99" name="Check Box 95">
+            <control shapeId="1119" r:id="rId94" name="Check Box 95">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12610,7 +12617,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1120" r:id="rId100" name="Check Box 96">
+            <control shapeId="1120" r:id="rId95" name="Check Box 96">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12632,7 +12639,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1121" r:id="rId101" name="Check Box 97">
+            <control shapeId="1121" r:id="rId96" name="Check Box 97">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12654,7 +12661,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1122" r:id="rId102" name="Check Box 98">
+            <control shapeId="1122" r:id="rId97" name="Check Box 98">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12676,7 +12683,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1123" r:id="rId103" name="Check Box 99">
+            <control shapeId="1123" r:id="rId98" name="Check Box 99">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12698,7 +12705,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1124" r:id="rId104" name="Check Box 100">
+            <control shapeId="1124" r:id="rId99" name="Check Box 100">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12720,7 +12727,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1126" r:id="rId105" name="Check Box 102">
+            <control shapeId="1126" r:id="rId100" name="Check Box 102">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12742,7 +12749,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1127" r:id="rId106" name="Check Box 103">
+            <control shapeId="1127" r:id="rId101" name="Check Box 103">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12764,7 +12771,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1128" r:id="rId107" name="Check Box 104">
+            <control shapeId="1128" r:id="rId102" name="Check Box 104">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12786,7 +12793,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1129" r:id="rId108" name="Check Box 105">
+            <control shapeId="1129" r:id="rId103" name="Check Box 105">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12808,7 +12815,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1130" r:id="rId109" name="Check Box 106">
+            <control shapeId="1130" r:id="rId104" name="Check Box 106">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12830,7 +12837,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1131" r:id="rId110" name="Check Box 107">
+            <control shapeId="1131" r:id="rId105" name="Check Box 107">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12852,7 +12859,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1132" r:id="rId111" name="Check Box 108">
+            <control shapeId="1132" r:id="rId106" name="Check Box 108">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12874,7 +12881,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1133" r:id="rId112" name="Check Box 109">
+            <control shapeId="1133" r:id="rId107" name="Check Box 109">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12896,7 +12903,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1134" r:id="rId113" name="Check Box 110">
+            <control shapeId="1134" r:id="rId108" name="Check Box 110">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12918,7 +12925,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1135" r:id="rId114" name="Check Box 111">
+            <control shapeId="1135" r:id="rId109" name="Check Box 111">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12940,7 +12947,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1136" r:id="rId115" name="Check Box 112">
+            <control shapeId="1136" r:id="rId110" name="Check Box 112">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12962,7 +12969,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1137" r:id="rId116" name="Check Box 113">
+            <control shapeId="1137" r:id="rId111" name="Check Box 113">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12984,7 +12991,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1138" r:id="rId117" name="Check Box 114">
+            <control shapeId="1138" r:id="rId112" name="Check Box 114">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13006,7 +13013,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1139" r:id="rId118" name="Check Box 115">
+            <control shapeId="1139" r:id="rId113" name="Check Box 115">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13028,7 +13035,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1140" r:id="rId119" name="Check Box 116">
+            <control shapeId="1140" r:id="rId114" name="Check Box 116">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13050,7 +13057,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1141" r:id="rId120" name="Check Box 117">
+            <control shapeId="1141" r:id="rId115" name="Check Box 117">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13072,7 +13079,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1142" r:id="rId121" name="Check Box 118">
+            <control shapeId="1142" r:id="rId116" name="Check Box 118">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13094,7 +13101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1143" r:id="rId122" name="Check Box 119">
+            <control shapeId="1143" r:id="rId117" name="Check Box 119">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13116,7 +13123,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1144" r:id="rId123" name="Check Box 120">
+            <control shapeId="1144" r:id="rId118" name="Check Box 120">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13138,7 +13145,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1145" r:id="rId124" name="Check Box 121">
+            <control shapeId="1145" r:id="rId119" name="Check Box 121">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13160,7 +13167,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1146" r:id="rId125" name="Check Box 122">
+            <control shapeId="1146" r:id="rId120" name="Check Box 122">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13182,7 +13189,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1147" r:id="rId126" name="Check Box 123">
+            <control shapeId="1147" r:id="rId121" name="Check Box 123">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13204,7 +13211,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1148" r:id="rId127" name="Check Box 124">
+            <control shapeId="1148" r:id="rId122" name="Check Box 124">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13226,7 +13233,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1149" r:id="rId128" name="Check Box 125">
+            <control shapeId="1149" r:id="rId123" name="Check Box 125">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13248,7 +13255,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1150" r:id="rId129" name="Check Box 126">
+            <control shapeId="1150" r:id="rId124" name="Check Box 126">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13270,7 +13277,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1151" r:id="rId130" name="Check Box 127">
+            <control shapeId="1151" r:id="rId125" name="Check Box 127">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13292,7 +13299,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1152" r:id="rId131" name="Check Box 128">
+            <control shapeId="1152" r:id="rId126" name="Check Box 128">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13314,7 +13321,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1153" r:id="rId132" name="Check Box 129">
+            <control shapeId="1153" r:id="rId127" name="Check Box 129">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13336,7 +13343,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1154" r:id="rId133" name="Check Box 130">
+            <control shapeId="1154" r:id="rId128" name="Check Box 130">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13358,7 +13365,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1155" r:id="rId134" name="Check Box 131">
+            <control shapeId="1155" r:id="rId129" name="Check Box 131">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13380,7 +13387,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1156" r:id="rId135" name="Check Box 132">
+            <control shapeId="1156" r:id="rId130" name="Check Box 132">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13402,7 +13409,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1157" r:id="rId136" name="Check Box 133">
+            <control shapeId="1157" r:id="rId131" name="Check Box 133">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -13424,7 +13431,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1158" r:id="rId137" name="Check Box 134">
+            <control shapeId="1158" r:id="rId132" name="Check Box 134">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
